--- a/natmiOut/OldD2/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H2">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I2">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J2">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N2">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O2">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P2">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q2">
-        <v>316.951342264139</v>
+        <v>327.4504684824125</v>
       </c>
       <c r="R2">
-        <v>316.951342264139</v>
+        <v>1309.80187392965</v>
       </c>
       <c r="S2">
-        <v>0.04653331752993536</v>
+        <v>0.04300015858529584</v>
       </c>
       <c r="T2">
-        <v>0.04653331752993536</v>
+        <v>0.0268588268171176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H3">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I3">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J3">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N3">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P3">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q3">
-        <v>7.508136590895357</v>
+        <v>12.03251726958583</v>
       </c>
       <c r="R3">
-        <v>7.508136590895357</v>
+        <v>72.195103617515</v>
       </c>
       <c r="S3">
-        <v>0.001102309589688051</v>
+        <v>0.001580086762955087</v>
       </c>
       <c r="T3">
-        <v>0.001102309589688051</v>
+        <v>0.001480434425772431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H4">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I4">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J4">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N4">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O4">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P4">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q4">
-        <v>3.09166678133961</v>
+        <v>3.999451578661667</v>
       </c>
       <c r="R4">
-        <v>3.09166678133961</v>
+        <v>23.99670947197</v>
       </c>
       <c r="S4">
-        <v>0.0004539040945689876</v>
+        <v>0.0005252002018311374</v>
       </c>
       <c r="T4">
-        <v>0.0004539040945689876</v>
+        <v>0.0004920770665525446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H5">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I5">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J5">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N5">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O5">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P5">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q5">
-        <v>3.878133723549729</v>
+        <v>4.560827431632499</v>
       </c>
       <c r="R5">
-        <v>3.878133723549729</v>
+        <v>27.36496458979499</v>
       </c>
       <c r="S5">
-        <v>0.0005693695022471223</v>
+        <v>0.00059891898689068</v>
       </c>
       <c r="T5">
-        <v>0.0005693695022471223</v>
+        <v>0.000561146582092412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H6">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I6">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J6">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N6">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O6">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P6">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q6">
-        <v>204.4240600811771</v>
+        <v>216.483269564925</v>
       </c>
       <c r="R6">
-        <v>204.4240600811771</v>
+        <v>1298.89961738955</v>
       </c>
       <c r="S6">
-        <v>0.03001258688656539</v>
+        <v>0.02842816186978553</v>
       </c>
       <c r="T6">
-        <v>0.03001258688656539</v>
+        <v>0.02663526489820859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H7">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I7">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J7">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N7">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O7">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P7">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q7">
-        <v>111.5424417726605</v>
+        <v>117.25154691893</v>
       </c>
       <c r="R7">
-        <v>111.5424417726605</v>
+        <v>469.00618767572</v>
       </c>
       <c r="S7">
-        <v>0.01637614096849591</v>
+        <v>0.01539724507114592</v>
       </c>
       <c r="T7">
-        <v>0.01637614096849591</v>
+        <v>0.009617451480005524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H8">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I8">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J8">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N8">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O8">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P8">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q8">
-        <v>643.6397224524388</v>
+        <v>700.5876138906684</v>
       </c>
       <c r="R8">
-        <v>643.6397224524388</v>
+        <v>4203.52568334401</v>
       </c>
       <c r="S8">
-        <v>0.09449618154574237</v>
+        <v>0.09199980271767669</v>
       </c>
       <c r="T8">
-        <v>0.09449618154574237</v>
+        <v>0.08619759262636902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H9">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I9">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J9">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N9">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P9">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q9">
-        <v>15.24693007127756</v>
+        <v>25.74384028847456</v>
       </c>
       <c r="R9">
-        <v>15.24693007127756</v>
+        <v>231.694562596271</v>
       </c>
       <c r="S9">
-        <v>0.002238483147902899</v>
+        <v>0.003380631031402515</v>
       </c>
       <c r="T9">
-        <v>0.002238483147902899</v>
+        <v>0.004751133934913962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H10">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I10">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J10">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N10">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O10">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P10">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q10">
-        <v>6.278312421212289</v>
+        <v>8.556916260806448</v>
       </c>
       <c r="R10">
-        <v>6.278312421212289</v>
+        <v>77.01224634725801</v>
       </c>
       <c r="S10">
-        <v>0.0009217525420824309</v>
+        <v>0.001123677599000096</v>
       </c>
       <c r="T10">
-        <v>0.0009217525420824309</v>
+        <v>0.001579214863414754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H11">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I11">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J11">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N11">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O11">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P11">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q11">
-        <v>7.875407296362823</v>
+        <v>9.757992475940332</v>
       </c>
       <c r="R11">
-        <v>7.875407296362823</v>
+        <v>87.821932283463</v>
       </c>
       <c r="S11">
-        <v>0.0011562305613895</v>
+        <v>0.001281400591314453</v>
       </c>
       <c r="T11">
-        <v>0.0011562305613895</v>
+        <v>0.001800878527428992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H12">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I12">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J12">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N12">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O12">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P12">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q12">
-        <v>415.1282160641489</v>
+        <v>463.1708055714301</v>
       </c>
       <c r="R12">
-        <v>415.1282160641489</v>
+        <v>4168.537250142871</v>
       </c>
       <c r="S12">
-        <v>0.0609471881575126</v>
+        <v>0.06082268925726227</v>
       </c>
       <c r="T12">
-        <v>0.0609471881575126</v>
+        <v>0.08548011902470722</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H13">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I13">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J13">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N13">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O13">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P13">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q13">
-        <v>226.5115703608283</v>
+        <v>250.8623116700014</v>
       </c>
       <c r="R13">
-        <v>226.5115703608283</v>
+        <v>1505.173870020008</v>
       </c>
       <c r="S13">
-        <v>0.03325537211014768</v>
+        <v>0.0329427508070991</v>
       </c>
       <c r="T13">
-        <v>0.03325537211014768</v>
+        <v>0.03086512938268208</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H14">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I14">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J14">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N14">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O14">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P14">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q14">
-        <v>713.4430070420966</v>
+        <v>841.2887777686201</v>
       </c>
       <c r="R14">
-        <v>713.4430070420966</v>
+        <v>5047.732666611721</v>
       </c>
       <c r="S14">
-        <v>0.1047443741649616</v>
+        <v>0.1104764058751786</v>
       </c>
       <c r="T14">
-        <v>0.1047443741649616</v>
+        <v>0.1035089200971118</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H15">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I15">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J15">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N15">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O15">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P15">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q15">
-        <v>16.90047282471233</v>
+        <v>30.91405486186801</v>
       </c>
       <c r="R15">
-        <v>16.90047282471233</v>
+        <v>278.226493756812</v>
       </c>
       <c r="S15">
-        <v>0.002481248581376848</v>
+        <v>0.004059573552408152</v>
       </c>
       <c r="T15">
-        <v>0.002481248581376848</v>
+        <v>0.005705318766515551</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H16">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I16">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J16">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N16">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O16">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P16">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q16">
-        <v>6.959200833460724</v>
+        <v>10.275428054664</v>
       </c>
       <c r="R16">
-        <v>6.959200833460724</v>
+        <v>92.47885249197601</v>
       </c>
       <c r="S16">
-        <v>0.0010217174025032</v>
+        <v>0.001349349225029684</v>
       </c>
       <c r="T16">
-        <v>0.0010217174025032</v>
+        <v>0.001896373438431314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H17">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I17">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J17">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N17">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O17">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P17">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q17">
-        <v>8.729502029162823</v>
+        <v>11.717720097804</v>
       </c>
       <c r="R17">
-        <v>8.729502029162823</v>
+        <v>105.459480880236</v>
       </c>
       <c r="S17">
-        <v>0.001281624765806234</v>
+        <v>0.001538748210680123</v>
       </c>
       <c r="T17">
-        <v>0.001281624765806234</v>
+        <v>0.002162554497412118</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H18">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I18">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J18">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N18">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O18">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P18">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q18">
-        <v>460.1492301443729</v>
+        <v>556.1908220919601</v>
       </c>
       <c r="R18">
-        <v>460.1492301443729</v>
+        <v>5005.717398827641</v>
       </c>
       <c r="S18">
-        <v>0.06755696342695713</v>
+        <v>0.0730378968901213</v>
       </c>
       <c r="T18">
-        <v>0.06755696342695713</v>
+        <v>0.1026473540667459</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H19">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I19">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J19">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N19">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O19">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P19">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q19">
-        <v>251.0769460783215</v>
+        <v>301.243760792496</v>
       </c>
       <c r="R19">
-        <v>251.0769460783215</v>
+        <v>1807.462564754976</v>
       </c>
       <c r="S19">
-        <v>0.03686194597835878</v>
+        <v>0.0395587447070762</v>
       </c>
       <c r="T19">
-        <v>0.03686194597835878</v>
+        <v>0.03706386818605557</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H20">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I20">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J20">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N20">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O20">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P20">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q20">
-        <v>910.1590592283604</v>
+        <v>1005.85537179742</v>
       </c>
       <c r="R20">
-        <v>910.1590592283604</v>
+        <v>6035.132230784519</v>
       </c>
       <c r="S20">
-        <v>0.1336253072893595</v>
+        <v>0.1320869708985738</v>
       </c>
       <c r="T20">
-        <v>0.1336253072893595</v>
+        <v>0.1237565578668216</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H21">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I21">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J21">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N21">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O21">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P21">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q21">
-        <v>21.56040257571272</v>
+        <v>36.96123016085467</v>
       </c>
       <c r="R21">
-        <v>21.56040257571272</v>
+        <v>332.651071447692</v>
       </c>
       <c r="S21">
-        <v>0.003165397729386398</v>
+        <v>0.004853676850090491</v>
       </c>
       <c r="T21">
-        <v>0.003165397729386398</v>
+        <v>0.006821350386174556</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H22">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I22">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J22">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N22">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O22">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P22">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q22">
-        <v>8.878045787881833</v>
+        <v>12.28543013935733</v>
       </c>
       <c r="R22">
-        <v>8.878045787881833</v>
+        <v>110.568871254216</v>
       </c>
       <c r="S22">
-        <v>0.001303433267521937</v>
+        <v>0.00161329878906346</v>
       </c>
       <c r="T22">
-        <v>0.001303433267521937</v>
+        <v>0.002267327771849461</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H23">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I23">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J23">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N23">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O23">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P23">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q23">
-        <v>11.13646819153151</v>
+        <v>14.009852522764</v>
       </c>
       <c r="R23">
-        <v>11.13646819153151</v>
+        <v>126.088672704876</v>
       </c>
       <c r="S23">
-        <v>0.00163500430954696</v>
+        <v>0.001839746582215733</v>
       </c>
       <c r="T23">
-        <v>0.00163500430954696</v>
+        <v>0.002585577171011425</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H24">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I24">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J24">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N24">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O24">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P24">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q24">
-        <v>587.025153066144</v>
+        <v>664.98869464236</v>
       </c>
       <c r="R24">
-        <v>587.025153066144</v>
+        <v>5984.89825178124</v>
       </c>
       <c r="S24">
-        <v>0.08618429456885263</v>
+        <v>0.08732502188674129</v>
       </c>
       <c r="T24">
-        <v>0.08618429456885263</v>
+        <v>0.1227264587585222</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H25">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I25">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J25">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N25">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O25">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P25">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q25">
-        <v>320.3058335157122</v>
+        <v>360.170803439536</v>
       </c>
       <c r="R25">
-        <v>320.3058335157122</v>
+        <v>2161.024820637216</v>
       </c>
       <c r="S25">
-        <v>0.04702580828717835</v>
+        <v>0.04729692932635186</v>
       </c>
       <c r="T25">
-        <v>0.04702580828717835</v>
+        <v>0.04431402379265883</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H26">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I26">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J26">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N26">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O26">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P26">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q26">
-        <v>113.1003057817441</v>
+        <v>113.7444086720083</v>
       </c>
       <c r="R26">
-        <v>113.1003057817441</v>
+        <v>682.46645203205</v>
       </c>
       <c r="S26">
-        <v>0.01660485929505448</v>
+        <v>0.01493669449842231</v>
       </c>
       <c r="T26">
-        <v>0.01660485929505448</v>
+        <v>0.01399467248327212</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H27">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I27">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J27">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N27">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O27">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P27">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q27">
-        <v>2.679188982811399</v>
+        <v>4.17965980628389</v>
       </c>
       <c r="R27">
-        <v>2.679188982811399</v>
+        <v>37.616938256555</v>
       </c>
       <c r="S27">
-        <v>0.0003933460283502108</v>
+        <v>0.0005488647957529106</v>
       </c>
       <c r="T27">
-        <v>0.0003933460283502108</v>
+        <v>0.0007713737857098858</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H28">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I28">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J28">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N28">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O28">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P28">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q28">
-        <v>1.103224412450557</v>
+        <v>1.389264327321112</v>
       </c>
       <c r="R28">
-        <v>1.103224412450557</v>
+        <v>12.50337894589</v>
       </c>
       <c r="S28">
-        <v>0.0001619702618219408</v>
+        <v>0.0001824354891552423</v>
       </c>
       <c r="T28">
-        <v>0.0001619702618219408</v>
+        <v>0.0002563945711338106</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H29">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I29">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J29">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N29">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O29">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P29">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q29">
-        <v>1.383865759528587</v>
+        <v>1.584265924768333</v>
       </c>
       <c r="R29">
-        <v>1.383865759528587</v>
+        <v>14.258393322915</v>
       </c>
       <c r="S29">
-        <v>0.0002031727152405719</v>
+        <v>0.0002080427196273127</v>
       </c>
       <c r="T29">
-        <v>0.0002031727152405719</v>
+        <v>0.0002923829355973949</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H30">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I30">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J30">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N30">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O30">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P30">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q30">
-        <v>72.94628739908849</v>
+        <v>75.19843107315002</v>
       </c>
       <c r="R30">
-        <v>72.94628739908849</v>
+        <v>676.7858796583502</v>
       </c>
       <c r="S30">
-        <v>0.01070963362995597</v>
+        <v>0.009874911697323057</v>
       </c>
       <c r="T30">
-        <v>0.01070963362995597</v>
+        <v>0.01387818653784469</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H31">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I31">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J31">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N31">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O31">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P31">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q31">
-        <v>39.80258982975646</v>
+        <v>40.72893201827334</v>
       </c>
       <c r="R31">
-        <v>39.80258982975646</v>
+        <v>244.37359210964</v>
       </c>
       <c r="S31">
-        <v>0.00584363056433534</v>
+        <v>0.005348444129312807</v>
       </c>
       <c r="T31">
-        <v>0.00584363056433534</v>
+        <v>0.005011130400552696</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H32">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I32">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J32">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N32">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O32">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P32">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q32">
-        <v>637.3646396892588</v>
+        <v>668.5211901724749</v>
       </c>
       <c r="R32">
-        <v>637.3646396892588</v>
+        <v>2674.0847606899</v>
       </c>
       <c r="S32">
-        <v>0.09357490316698623</v>
+        <v>0.08778890232857045</v>
       </c>
       <c r="T32">
-        <v>0.09357490316698623</v>
+        <v>0.05483484251414426</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H33">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I33">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J33">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N33">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O33">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P33">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q33">
-        <v>15.09828208585314</v>
+        <v>24.56552529338167</v>
       </c>
       <c r="R33">
-        <v>15.09828208585314</v>
+        <v>147.39315176029</v>
       </c>
       <c r="S33">
-        <v>0.002216659344108513</v>
+        <v>0.003225896998230264</v>
       </c>
       <c r="T33">
-        <v>0.002216659344108513</v>
+        <v>0.003022447299820699</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H34">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I34">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J34">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N34">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O34">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P34">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q34">
-        <v>6.217102821055704</v>
+        <v>8.165259746903335</v>
       </c>
       <c r="R34">
-        <v>6.217102821055704</v>
+        <v>48.99155848142</v>
       </c>
       <c r="S34">
-        <v>0.0009127660341231333</v>
+        <v>0.001072246027419668</v>
       </c>
       <c r="T34">
-        <v>0.0009127660341231333</v>
+        <v>0.001004622005010068</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H35">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I35">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J35">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N35">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O35">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P35">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q35">
-        <v>7.798627024955505</v>
+        <v>9.311361797394998</v>
       </c>
       <c r="R35">
-        <v>7.798627024955505</v>
+        <v>55.86817078436999</v>
       </c>
       <c r="S35">
-        <v>0.001144958040112547</v>
+        <v>0.001222749919365455</v>
       </c>
       <c r="T35">
-        <v>0.001144958040112547</v>
+        <v>0.001145633972246965</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H36">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I36">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J36">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N36">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O36">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P36">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q36">
-        <v>411.0809768676489</v>
+        <v>441.97112831355</v>
       </c>
       <c r="R36">
-        <v>411.0809768676489</v>
+        <v>2651.8267698813</v>
       </c>
       <c r="S36">
-        <v>0.06035299137858436</v>
+        <v>0.05803878887602065</v>
       </c>
       <c r="T36">
-        <v>0.06035299137858436</v>
+        <v>0.05437841965178296</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H37">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I37">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J37">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N37">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O37">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P37">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q37">
-        <v>224.3032249134463</v>
+        <v>239.38015437598</v>
       </c>
       <c r="R37">
-        <v>224.3032249134463</v>
+        <v>957.5206175039199</v>
       </c>
       <c r="S37">
-        <v>0.03293115313323867</v>
+        <v>0.03143493624560993</v>
       </c>
       <c r="T37">
-        <v>0.03293115313323867</v>
+        <v>0.01963493941430917</v>
       </c>
     </row>
   </sheetData>
